--- a/03_ProjectPlan/Timeline_Gantt_Chart.xlsx
+++ b/03_ProjectPlan/Timeline_Gantt_Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598652E8-4F13-4EFB-98F8-06C858364085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB7A6B-2000-47AA-A7A3-C4F785E715A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="12994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1439,20 +1439,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="12" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2035,9 +2035,9 @@
   <dimension ref="A1:DA43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2077,10 +2077,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="131"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2094,164 +2094,164 @@
         <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="133">
+      <c r="E3" s="135">
         <f>DATE(2023, 1, 23)</f>
         <v>44949</v>
       </c>
-      <c r="F3" s="133"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:105" s="123" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="130">
         <v>1</v>
       </c>
       <c r="G4" s="129"/>
-      <c r="H4" s="132">
+      <c r="H4" s="133">
         <f>H5</f>
         <v>44949</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133">
         <f>O5</f>
         <v>44956</v>
       </c>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132">
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133">
         <f>V5</f>
         <v>44963</v>
       </c>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132">
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133">
         <f>AC5</f>
         <v>44970</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133">
         <f>AJ5</f>
         <v>44977</v>
       </c>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132">
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133">
         <f>AQ5</f>
         <v>44984</v>
       </c>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="132"/>
-      <c r="AX4" s="132">
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="133">
         <f>AX5</f>
         <v>44991</v>
       </c>
-      <c r="AY4" s="132"/>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="132"/>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="132"/>
-      <c r="BE4" s="132">
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="133">
         <f>BE5</f>
         <v>44998</v>
       </c>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="132"/>
-      <c r="BI4" s="132"/>
-      <c r="BJ4" s="132"/>
-      <c r="BK4" s="132"/>
-      <c r="BL4" s="132">
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133">
         <f t="shared" ref="BL4" si="0">BL5</f>
         <v>45005</v>
       </c>
-      <c r="BM4" s="132"/>
-      <c r="BN4" s="132"/>
-      <c r="BO4" s="132"/>
-      <c r="BP4" s="132"/>
-      <c r="BQ4" s="132"/>
-      <c r="BR4" s="132"/>
-      <c r="BS4" s="132">
+      <c r="BM4" s="133"/>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="133"/>
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133">
         <f t="shared" ref="BS4" si="1">BS5</f>
         <v>45012</v>
       </c>
-      <c r="BT4" s="132"/>
-      <c r="BU4" s="132"/>
-      <c r="BV4" s="132"/>
-      <c r="BW4" s="132"/>
-      <c r="BX4" s="132"/>
-      <c r="BY4" s="132"/>
-      <c r="BZ4" s="132">
+      <c r="BT4" s="133"/>
+      <c r="BU4" s="133"/>
+      <c r="BV4" s="133"/>
+      <c r="BW4" s="133"/>
+      <c r="BX4" s="133"/>
+      <c r="BY4" s="133"/>
+      <c r="BZ4" s="133">
         <f t="shared" ref="BZ4" si="2">BZ5</f>
         <v>45019</v>
       </c>
-      <c r="CA4" s="132"/>
-      <c r="CB4" s="132"/>
-      <c r="CC4" s="132"/>
-      <c r="CD4" s="132"/>
-      <c r="CE4" s="132"/>
-      <c r="CF4" s="132"/>
-      <c r="CG4" s="132">
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="133"/>
+      <c r="CD4" s="133"/>
+      <c r="CE4" s="133"/>
+      <c r="CF4" s="133"/>
+      <c r="CG4" s="133">
         <f t="shared" ref="CG4" si="3">CG5</f>
         <v>45026</v>
       </c>
-      <c r="CH4" s="132"/>
-      <c r="CI4" s="132"/>
-      <c r="CJ4" s="132"/>
-      <c r="CK4" s="132"/>
-      <c r="CL4" s="132"/>
-      <c r="CM4" s="132"/>
-      <c r="CN4" s="132">
+      <c r="CH4" s="133"/>
+      <c r="CI4" s="133"/>
+      <c r="CJ4" s="133"/>
+      <c r="CK4" s="133"/>
+      <c r="CL4" s="133"/>
+      <c r="CM4" s="133"/>
+      <c r="CN4" s="133">
         <f t="shared" ref="CN4" si="4">CN5</f>
         <v>45033</v>
       </c>
-      <c r="CO4" s="132"/>
-      <c r="CP4" s="132"/>
-      <c r="CQ4" s="132"/>
-      <c r="CR4" s="132"/>
-      <c r="CS4" s="132"/>
-      <c r="CT4" s="132"/>
-      <c r="CU4" s="132">
+      <c r="CO4" s="133"/>
+      <c r="CP4" s="133"/>
+      <c r="CQ4" s="133"/>
+      <c r="CR4" s="133"/>
+      <c r="CS4" s="133"/>
+      <c r="CT4" s="133"/>
+      <c r="CU4" s="133">
         <f t="shared" ref="CU4" si="5">CU5</f>
         <v>45040</v>
       </c>
-      <c r="CV4" s="132"/>
-      <c r="CW4" s="132"/>
-      <c r="CX4" s="132"/>
-      <c r="CY4" s="132"/>
-      <c r="CZ4" s="132"/>
-      <c r="DA4" s="132"/>
+      <c r="CV4" s="133"/>
+      <c r="CW4" s="133"/>
+      <c r="CX4" s="133"/>
+      <c r="CY4" s="133"/>
+      <c r="CZ4" s="133"/>
+      <c r="DA4" s="133"/>
     </row>
     <row r="5" spans="1:105" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="122" t="s">
@@ -5082,7 +5082,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="53">
         <f>E23+3</f>
@@ -5204,7 +5204,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E25" s="53">
         <f>E24+3</f>
@@ -5692,7 +5692,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="53">
         <f>F28-1</f>
@@ -5934,7 +5934,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E31" s="53">
         <f>F30</f>
@@ -6292,7 +6292,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="105">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E34" s="106">
         <f>E23</f>
@@ -6414,7 +6414,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="10">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E35" s="59">
         <f>E22</f>
@@ -6658,7 +6658,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E37" s="59">
         <f>E13-1</f>
@@ -7128,12 +7128,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="BS4:BY4"/>
@@ -7145,6 +7139,12 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
